--- a/output/fit_clients/fit_round_448.xlsx
+++ b/output/fit_clients/fit_round_448.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1777298136.988855</v>
+        <v>2385108628.155652</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09138126098532838</v>
+        <v>0.08711774964622228</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03379140952786944</v>
+        <v>0.03807352242544426</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>888649034.1917915</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2122705258.752964</v>
+        <v>1702043586.597418</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1766632254725224</v>
+        <v>0.1626332521270397</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0320233220464749</v>
+        <v>0.05004394520427582</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1061352688.454131</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4511042816.873277</v>
+        <v>4396017082.18891</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1273338258225166</v>
+        <v>0.1655977561641026</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02581794658840457</v>
+        <v>0.0344371180362781</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>162</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2255521458.83068</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>4100944632.761312</v>
+        <v>2854158294.280875</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1043171451555729</v>
+        <v>0.07759015384826887</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03547710088465061</v>
+        <v>0.03071653287253948</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>165</v>
-      </c>
-      <c r="J5" t="n">
-        <v>2050472313.436404</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -632,22 +598,16 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1742490004.839208</v>
+        <v>2131732225.871505</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1223972191757935</v>
+        <v>0.0967129494544799</v>
       </c>
       <c r="G6" t="n">
-        <v>0.05394536358190626</v>
+        <v>0.04986108336698426</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>84</v>
-      </c>
-      <c r="J6" t="n">
-        <v>871245059.9011933</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2486128695.844836</v>
+        <v>2646239072.964469</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06484102785935451</v>
+        <v>0.07143029430354231</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03596766175159075</v>
+        <v>0.04944842469305906</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>141</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1243064362.309335</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3492515664.757997</v>
+        <v>3725978923.945741</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2041853394693198</v>
+        <v>0.1642063036227226</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02287715506875909</v>
+        <v>0.0243098598182003</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>143</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1746257940.260828</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1428622932.68484</v>
+        <v>1858952637.770449</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1550288271079871</v>
+        <v>0.1386364546400002</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02529403077949318</v>
+        <v>0.03309443502888457</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>714311572.248523</v>
       </c>
     </row>
     <row r="10">
@@ -768,22 +710,16 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4825830917.240749</v>
+        <v>4816048808.138676</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1901686651253886</v>
+        <v>0.1947425777846129</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05182575732766261</v>
+        <v>0.05136947227857168</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>189</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2412915544.443756</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3157848707.586875</v>
+        <v>3253497871.121863</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1757340719877329</v>
+        <v>0.1801709635886587</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03820212757250102</v>
+        <v>0.04891628636433408</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>186</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1578924307.809495</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2546458225.506063</v>
+        <v>3231611254.399265</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1830725729287968</v>
+        <v>0.1777235152880813</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05226771069303884</v>
+        <v>0.05255057437496317</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>152</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1273229089.23744</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4602837000.110418</v>
+        <v>4755084977.404785</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09879493614209722</v>
+        <v>0.07178384732054173</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02769474614637757</v>
+        <v>0.02242046919064762</v>
       </c>
       <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="n">
-        <v>151</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2301418524.384807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3884883810.801107</v>
+        <v>2360896206.569775</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1515433603526242</v>
+        <v>0.1584729472284996</v>
       </c>
       <c r="G14" t="n">
-        <v>0.038684633860981</v>
+        <v>0.03044589054346966</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>145</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1942441875.776691</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1387453368.103606</v>
+        <v>1470020172.031953</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06960229063252533</v>
+        <v>0.1056062153010433</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03280453491169397</v>
+        <v>0.04156579931524548</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>693726744.048228</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>1975517797.380263</v>
+        <v>2122066222.058873</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08632790180177916</v>
+        <v>0.1120097236746988</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0449899933877131</v>
+        <v>0.04751949240957128</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>93</v>
-      </c>
-      <c r="J16" t="n">
-        <v>987758976.3842038</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4999995675.223287</v>
+        <v>3293274813.154805</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1340110182047114</v>
+        <v>0.1687985666760042</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0449645087803625</v>
+        <v>0.03884408850162299</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>135</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2499997822.794046</v>
       </c>
     </row>
     <row r="18">
@@ -1040,22 +934,16 @@
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3149835373.034016</v>
+        <v>3625391673.172052</v>
       </c>
       <c r="F18" t="n">
-        <v>0.129736077764037</v>
+        <v>0.1147770321652233</v>
       </c>
       <c r="G18" t="n">
-        <v>0.03093402131148451</v>
+        <v>0.02668531058498795</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>147</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1574917705.949538</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1338349909.327891</v>
+        <v>1003084793.584575</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1628138586696222</v>
+        <v>0.1587628952552328</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02071709231506973</v>
+        <v>0.02733206857854363</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>669175066.3150004</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2470779808.527823</v>
+        <v>2417428452.1654</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1335466003443934</v>
+        <v>0.1270745545583461</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0233075291261928</v>
+        <v>0.02136187032612425</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>62</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1235389880.490272</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2704554966.267092</v>
+        <v>2155144349.363874</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06916491181827533</v>
+        <v>0.09337631906579248</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03025218830343532</v>
+        <v>0.03683046760231422</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1352277451.72857</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3584718260.074802</v>
+        <v>3533340865.183428</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1220045042424968</v>
+        <v>0.1210124618989746</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04868225825888747</v>
+        <v>0.04723007270572328</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
-      </c>
-      <c r="I22" t="n">
-        <v>124</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1792359156.570414</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1236184734.112172</v>
+        <v>1247599449.878311</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1262700581255362</v>
+        <v>0.1720927199412824</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0441498990251474</v>
+        <v>0.03541328235197461</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>618092397.4565133</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3407956083.428411</v>
+        <v>2720323009.6268</v>
       </c>
       <c r="F24" t="n">
-        <v>0.09951816691940388</v>
+        <v>0.1340285011297425</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02787311441826117</v>
+        <v>0.02478328952477874</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>131</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1703978049.542997</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1079388284.256083</v>
+        <v>1080366040.033456</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0988015794943309</v>
+        <v>0.0960572602182994</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02513594202492107</v>
+        <v>0.02122120175539615</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>539694187.8696865</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1135801062.802231</v>
+        <v>917088928.4569998</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09255528856556607</v>
+        <v>0.1149284868816691</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03823561316993247</v>
+        <v>0.02911815627376222</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>567900536.7133124</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3895620599.436583</v>
+        <v>4451781891.666482</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1249916019815617</v>
+        <v>0.15350294896532</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02427639946955935</v>
+        <v>0.02130729539831693</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1947810315.073797</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1380,22 +1214,16 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3151539892.566606</v>
+        <v>3597346178.771768</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1287399729379956</v>
+        <v>0.1365355745865334</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04451788642032509</v>
+        <v>0.03571008851420979</v>
       </c>
       <c r="H28" t="b">
-        <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>146</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1575769970.709201</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5694230595.270168</v>
+        <v>4077105671.968744</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1257309401992555</v>
+        <v>0.1321038010245754</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04440336006615236</v>
+        <v>0.04482286848824643</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>198</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2847115197.165942</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1614944084.802817</v>
+        <v>2067299330.839841</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1288483977007052</v>
+        <v>0.0944054165504135</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02983184257026374</v>
+        <v>0.03810343828990286</v>
       </c>
       <c r="H30" t="b">
-        <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>807472036.0562088</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1061398102.973872</v>
+        <v>1252836255.658646</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07217404496839787</v>
+        <v>0.1066689299628363</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03354603870931695</v>
+        <v>0.04600281531516186</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>530699035.5847996</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1877721046.727174</v>
+        <v>1264426604.584143</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08251908798953579</v>
+        <v>0.08120650764796883</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03433124215607758</v>
+        <v>0.02813056208344509</v>
       </c>
       <c r="H32" t="b">
-        <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>938860669.9468181</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2625371901.123618</v>
+        <v>2685472642.67606</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1722418656778024</v>
+        <v>0.1557730910684209</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04726475112953207</v>
+        <v>0.03819632234642691</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
-      </c>
-      <c r="I33" t="n">
-        <v>137</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1312685978.097018</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1557257343.281157</v>
+        <v>1246825694.677962</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09648348067581401</v>
+        <v>0.09578090689209016</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02600700376684845</v>
+        <v>0.02486762947545046</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>778628618.0969652</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1060850661.922229</v>
+        <v>1310793928.733233</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08223497833363892</v>
+        <v>0.08116469264981943</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03830747778133245</v>
+        <v>0.0448803666036434</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>530425336.2171547</v>
       </c>
     </row>
     <row r="36">
@@ -1652,22 +1438,16 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3129193633.3045</v>
+        <v>2921112756.365578</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1378343072071315</v>
+        <v>0.1233848422595109</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02782621770360776</v>
+        <v>0.02423353281842019</v>
       </c>
       <c r="H36" t="b">
-        <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>114</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1564596788.246957</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2273263601.557701</v>
+        <v>1916255903.779705</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09093450768103552</v>
+        <v>0.07750776869372726</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03826696384513933</v>
+        <v>0.03710928426979421</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>120</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1136631865.675433</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1897378343.580058</v>
+        <v>2113305135.418187</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09591159689203327</v>
+        <v>0.1054953372031304</v>
       </c>
       <c r="G38" t="n">
-        <v>0.02572657553039466</v>
+        <v>0.0275024414537964</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>948689164.9267635</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1710513276.264277</v>
+        <v>1428687920.764348</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1476088271772019</v>
+        <v>0.1438359066516684</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02705847409461669</v>
+        <v>0.02001452051929922</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>855256676.6153442</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1637885324.949792</v>
+        <v>1285672293.479495</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1160019433675245</v>
+        <v>0.1469534689358661</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05051389141089319</v>
+        <v>0.04422403194051667</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>818942594.1842713</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2493568707.179531</v>
+        <v>2408410781.44855</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1624270022792147</v>
+        <v>0.1161316040165813</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04559151786512844</v>
+        <v>0.03282927999473979</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>110</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1246784379.516376</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2977410071.273149</v>
+        <v>3103153853.013251</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08672777363557103</v>
+        <v>0.07807649725301864</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03647052398728198</v>
+        <v>0.04648469151298016</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1488704994.5648</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1960416799.886172</v>
+        <v>3015452494.447188</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1486903722714034</v>
+        <v>0.1301994162886408</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02503366741871614</v>
+        <v>0.02372359542433453</v>
       </c>
       <c r="H43" t="b">
-        <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>156</v>
-      </c>
-      <c r="J43" t="n">
-        <v>980208502.8871186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1706075990.613487</v>
+        <v>2171948109.21267</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06826900683133078</v>
+        <v>0.09346220938214177</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02262980223203171</v>
+        <v>0.03246329054049441</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>853038043.0292479</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1720884834.726406</v>
+        <v>2373849906.554089</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1320705207137663</v>
+        <v>0.155039102269776</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0465826316355182</v>
+        <v>0.03780643731917735</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>860442380.1588676</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>5279939309.408299</v>
+        <v>3824167254.960961</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1782337318567845</v>
+        <v>0.1577425466826006</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04016696143327252</v>
+        <v>0.0496954732999362</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>160</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2639969697.577779</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3691063648.830858</v>
+        <v>4891561281.580745</v>
       </c>
       <c r="F47" t="n">
-        <v>0.196618080376154</v>
+        <v>0.1929945835385554</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04992864880404575</v>
+        <v>0.05505525799187596</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>124</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1845531806.073312</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3220523964.737936</v>
+        <v>3391669714.871954</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1037092144434254</v>
+        <v>0.1031007490203522</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03743312587696118</v>
+        <v>0.03559120053953248</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>146</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1610262062.09326</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1260751578.936499</v>
+        <v>1344863349.230718</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1880938875469601</v>
+        <v>0.1551183296917209</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02847028276714536</v>
+        <v>0.04275819380331893</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>630375858.6957989</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3595933889.09972</v>
+        <v>3557138208.840387</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1603200880554542</v>
+        <v>0.123892520416436</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03750714043601062</v>
+        <v>0.04273172915577852</v>
       </c>
       <c r="H50" t="b">
         <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>153</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1797966961.996225</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1309372127.640934</v>
+        <v>1024308709.403611</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1566634205931595</v>
+        <v>0.1329897748442115</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04461792618735889</v>
+        <v>0.04388192375800559</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>654686097.6720296</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>5181338639.917298</v>
+        <v>3717519853.673288</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1392534230015541</v>
+        <v>0.122426808199006</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04827933521871654</v>
+        <v>0.05872248434135258</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>185</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2590669306.927791</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2354154815.238274</v>
+        <v>2985751501.79015</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1937740874338718</v>
+        <v>0.1302805559769955</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02324562691967641</v>
+        <v>0.02896033871095305</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1177077484.688281</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4868566786.234802</v>
+        <v>4728353145.090899</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1397145088721295</v>
+        <v>0.1038969911012245</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04458273624635689</v>
+        <v>0.05080156608586885</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>147</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2434283525.425126</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4677150263.911814</v>
+        <v>3563323799.015242</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2025441139096496</v>
+        <v>0.1961434199760177</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02939725728155019</v>
+        <v>0.02642339635192363</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>116</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2338575136.794979</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1265198070.747472</v>
+        <v>1446798579.671369</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1358596192906642</v>
+        <v>0.118769772432428</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03931787412740081</v>
+        <v>0.0521560401660946</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>632599112.4505986</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3065941060.316683</v>
+        <v>4525816275.517008</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1363708318667225</v>
+        <v>0.1693535105254683</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02125516121057365</v>
+        <v>0.02519229482830435</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>143</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1532970540.118108</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1386124120.99734</v>
+        <v>1787158511.829244</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1495017679252731</v>
+        <v>0.1916389340665598</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02910696889470441</v>
+        <v>0.03604823875673037</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>693062102.03688</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4581181095.750525</v>
+        <v>4865518445.396679</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09265818303526765</v>
+        <v>0.09964730354746523</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04493641153315275</v>
+        <v>0.03984088973693181</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>126</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2290590495.793167</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3046359227.243062</v>
+        <v>2629961091.088897</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1921040157518715</v>
+        <v>0.1976197207196385</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02334075960026598</v>
+        <v>0.02373290597709405</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
-      </c>
-      <c r="I60" t="n">
-        <v>140</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1523179688.852694</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2663375394.304959</v>
+        <v>3028766738.488683</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1693387124703537</v>
+        <v>0.1436797655106749</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03248114820749032</v>
+        <v>0.02203062082074638</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
-      </c>
-      <c r="I61" t="n">
-        <v>154</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1331687709.38114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1301872444.402174</v>
+        <v>1702123465.879304</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1278398911171373</v>
+        <v>0.16936829083605</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03553422549870852</v>
+        <v>0.04890450347484041</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>650936175.5536513</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5426853474.186912</v>
+        <v>5149336458.714664</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08064381499245596</v>
+        <v>0.07252464469264885</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04646458385089863</v>
+        <v>0.03547998418074689</v>
       </c>
       <c r="H63" t="b">
         <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>130</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2713426735.856684</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4607684347.711675</v>
+        <v>4384209639.771427</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1475245164207827</v>
+        <v>0.1302767357706337</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02928357149967845</v>
+        <v>0.03464960821148065</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>140</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2303842252.476918</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5423035163.473633</v>
+        <v>4917360310.554833</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1366633927282074</v>
+        <v>0.1175871011065612</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02590135322107943</v>
+        <v>0.02572220838712767</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>161</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2711517515.427643</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5660478213.639459</v>
+        <v>4130473306.347564</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1451934183460788</v>
+        <v>0.09902384979763475</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04648130114987978</v>
+        <v>0.04099141250290975</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2830239169.364878</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2480405307.907765</v>
+        <v>2187945216.28941</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08920594233185095</v>
+        <v>0.0792678724617424</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03841514668892721</v>
+        <v>0.04877124740428763</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>143</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1240202716.199652</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4109929390.727496</v>
+        <v>5338454822.879774</v>
       </c>
       <c r="F68" t="n">
-        <v>0.09794221702563821</v>
+        <v>0.103621282538671</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03297096104901701</v>
+        <v>0.04447328870745681</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>143</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2054964697.845659</v>
       </c>
     </row>
     <row r="69">
@@ -2774,22 +2362,16 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1534438802.029727</v>
+        <v>1609470816.832431</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1610081365727022</v>
+        <v>0.1438087749846098</v>
       </c>
       <c r="G69" t="n">
-        <v>0.05103530985794176</v>
+        <v>0.04537728189689599</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>767219345.7784773</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2855019074.129513</v>
+        <v>2945336245.06189</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06768505450784625</v>
+        <v>0.07764248375427332</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03618872436044849</v>
+        <v>0.0496011480592865</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>128</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1427509504.712772</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2842,22 +2418,16 @@
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5438918540.677055</v>
+        <v>4156966752.042494</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1450038176644949</v>
+        <v>0.1477893064988115</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02308637243861191</v>
+        <v>0.03037301720468191</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>163</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2719459408.806225</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1972396610.847774</v>
+        <v>1639243306.536604</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06997514914369979</v>
+        <v>0.0772323264337553</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04776418812831074</v>
+        <v>0.04908608191023071</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>986198256.2364645</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2860178443.3432</v>
+        <v>2200537781.765801</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09738981684540535</v>
+        <v>0.06829653121227508</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0463110595642696</v>
+        <v>0.03985510832533451</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>170</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1430089230.485029</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3329216551.806701</v>
+        <v>2538219678.747011</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1286355080810538</v>
+        <v>0.1835174792701279</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02268370852452808</v>
+        <v>0.03267792150564974</v>
       </c>
       <c r="H74" t="b">
         <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>153</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1664608312.880204</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2406145090.708152</v>
+        <v>2176361709.78944</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1334608991481654</v>
+        <v>0.1479524949486944</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02661345594562654</v>
+        <v>0.02579621546256115</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1203072471.454886</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5185259398.201717</v>
+        <v>5167088903.943598</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09933088900979151</v>
+        <v>0.1202536364162845</v>
       </c>
       <c r="G76" t="n">
-        <v>0.0254910180481033</v>
+        <v>0.02147150589476734</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2592629733.54995</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1421456301.90828</v>
+        <v>2234059391.526628</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1737650347349148</v>
+        <v>0.1434634241396431</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02547681520374537</v>
+        <v>0.01992702531862221</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>710728127.0178002</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3272096382.393988</v>
+        <v>3908165134.913655</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1231049561623955</v>
+        <v>0.1090581096595878</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04263094484943983</v>
+        <v>0.03841810149860607</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>156</v>
-      </c>
-      <c r="J78" t="n">
-        <v>1636048209.050935</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1560061297.641056</v>
+        <v>1189974705.397113</v>
       </c>
       <c r="F79" t="n">
-        <v>0.148054913821131</v>
+        <v>0.1654097866688218</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02574352764366982</v>
+        <v>0.03705510804584381</v>
       </c>
       <c r="H79" t="b">
-        <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>780030693.5725342</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5145094880.172129</v>
+        <v>4972363191.055934</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08021071373303877</v>
+        <v>0.0763497846380267</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03057313109675332</v>
+        <v>0.03726503092359195</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2572547496.549006</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4657811831.700684</v>
+        <v>3351649837.301406</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1169539161542299</v>
+        <v>0.09418617818039832</v>
       </c>
       <c r="G81" t="n">
-        <v>0.03021088498710735</v>
+        <v>0.02308940579115085</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2328905903.5016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4299308469.369252</v>
+        <v>4987362468.072153</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1312714809701787</v>
+        <v>0.1615948426490578</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02862147800867581</v>
+        <v>0.02466591618274436</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>157</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2149654257.75268</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1960087738.903309</v>
+        <v>2055916478.988786</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1013430875917606</v>
+        <v>0.1484453017637055</v>
       </c>
       <c r="G83" t="n">
-        <v>0.040186019874829</v>
+        <v>0.02966995169561675</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>980043849.8322477</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2308221639.567954</v>
+        <v>2330200109.332912</v>
       </c>
       <c r="F84" t="n">
-        <v>0.08405961859691934</v>
+        <v>0.07812363546414662</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03614771955649438</v>
+        <v>0.04838837048152613</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1154110779.679667</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3327003567.105013</v>
+        <v>3201571461.327751</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1160125941830465</v>
+        <v>0.1806117148067397</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04211703110601257</v>
+        <v>0.05654393565504794</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>168</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1663501879.812746</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2395868528.657102</v>
+        <v>2210743558.317056</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1297534112985847</v>
+        <v>0.1142174569063816</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02342427019093701</v>
+        <v>0.01774927937325821</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1197934347.012504</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1301592412.742104</v>
+        <v>1449503171.003307</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1151532727689386</v>
+        <v>0.1875539080817459</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0356058128601902</v>
+        <v>0.02678256683080944</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>650796288.0299706</v>
       </c>
     </row>
     <row r="88">
@@ -3420,22 +2894,16 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3525281127.933192</v>
+        <v>3480443931.441248</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1717228869733296</v>
+        <v>0.1480266508349739</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03674655937141124</v>
+        <v>0.03641279077204584</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>178</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1762640646.338034</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2588957931.935923</v>
+        <v>2924524418.303431</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1129088339832019</v>
+        <v>0.156461182440318</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03108696657403593</v>
+        <v>0.03150468212678643</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>152</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1294479034.216501</v>
       </c>
     </row>
     <row r="90">
@@ -3488,22 +2950,16 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1715903129.666639</v>
+        <v>1884128332.120902</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1063083197456757</v>
+        <v>0.1162370548103749</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05284312124684475</v>
+        <v>0.05486224563658033</v>
       </c>
       <c r="H90" t="b">
-        <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>857951583.0706729</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1884938965.167561</v>
+        <v>1334824142.929585</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1625214896980572</v>
+        <v>0.1189753994118743</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05659830149765408</v>
+        <v>0.05684373292412071</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>942469470.1892197</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1896924196.963321</v>
+        <v>2615556557.973759</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1044451918336779</v>
+        <v>0.0765479330141848</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04474903915005671</v>
+        <v>0.03293315243876706</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
-      </c>
-      <c r="I92" t="n">
-        <v>123</v>
-      </c>
-      <c r="J92" t="n">
-        <v>948462036.9391212</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4384488817.772291</v>
+        <v>3893137592.14768</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1034211310922319</v>
+        <v>0.09865177787178238</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03911188508436705</v>
+        <v>0.05316260482535941</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2192244384.659647</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
@@ -3618,28 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1603690532.254008</v>
+        <v>2368737960.969382</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1089880811767737</v>
+        <v>0.1318739588088478</v>
       </c>
       <c r="G94" t="n">
-        <v>0.04252425317359652</v>
+        <v>0.03590565586967227</v>
       </c>
       <c r="H94" t="b">
-        <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>801845212.9000401</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2079917712.162793</v>
+        <v>2803649273.5539</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1299140712666685</v>
+        <v>0.08360351711424327</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04615868069311919</v>
+        <v>0.04669366069335575</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1039958922.723317</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1721481016.022419</v>
+        <v>1967906044.120189</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1003685244283537</v>
+        <v>0.1270044335533832</v>
       </c>
       <c r="G96" t="n">
-        <v>0.02863323935909457</v>
+        <v>0.03934923435971858</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>860740524.7295628</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3430788433.63464</v>
+        <v>4101175449.889925</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1592048967010141</v>
+        <v>0.1264164541009654</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01796443624868469</v>
+        <v>0.02058381855703162</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>144</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1715394227.431108</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2409920209.670664</v>
+        <v>3504160468.645095</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1022050117978186</v>
+        <v>0.09876740000241342</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02597391736484495</v>
+        <v>0.03039347139633113</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1204960049.517186</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2092987849.901884</v>
+        <v>3069497910.214895</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09475013485831556</v>
+        <v>0.09453429222289393</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02535591049254383</v>
+        <v>0.03456278255866741</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>141</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1046493845.257874</v>
       </c>
     </row>
     <row r="100">
@@ -3828,22 +3230,16 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4162435730.34658</v>
+        <v>3416919200.319695</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1762301270249341</v>
+        <v>0.1225786131346863</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02124285352837932</v>
+        <v>0.01796428607880347</v>
       </c>
       <c r="H100" t="b">
-        <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2081217948.839855</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2646507671.538177</v>
+        <v>3393722709.712162</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1403006900296777</v>
+        <v>0.1974627443045919</v>
       </c>
       <c r="G101" t="n">
-        <v>0.04448169396984181</v>
+        <v>0.03632264784374464</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>184</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1323253878.172294</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_448.xlsx
+++ b/output/fit_clients/fit_round_448.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2385108628.155652</v>
+        <v>2195775251.096577</v>
       </c>
       <c r="F2" t="n">
-        <v>0.08711774964622228</v>
+        <v>0.07501284454510417</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03807352242544426</v>
+        <v>0.03015437621179912</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1702043586.597418</v>
+        <v>1949479427.978739</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1626332521270397</v>
+        <v>0.1207708575811357</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05004394520427582</v>
+        <v>0.04835701812603063</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,19 +536,19 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4396017082.18891</v>
+        <v>4684719277.696337</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1655977561641026</v>
+        <v>0.1258939993245593</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0344371180362781</v>
+        <v>0.02481276579277882</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2854158294.280875</v>
+        <v>2976599059.549586</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07759015384826887</v>
+        <v>0.08936296283836834</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03071653287253948</v>
+        <v>0.03069046851524039</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -598,13 +598,13 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2131732225.871505</v>
+        <v>2027942834.681373</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0967129494544799</v>
+        <v>0.1038954315797095</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04986108336698426</v>
+        <v>0.03728229057976466</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2646239072.964469</v>
+        <v>2461729580.84448</v>
       </c>
       <c r="F7" t="n">
-        <v>0.07143029430354231</v>
+        <v>0.08020631440569165</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04944842469305906</v>
+        <v>0.04905553749760876</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3725978923.945741</v>
+        <v>3400910134.5007</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1642063036227226</v>
+        <v>0.1974134980807527</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0243098598182003</v>
+        <v>0.02855999188066241</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1858952637.770449</v>
+        <v>2009148754.303396</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1386364546400002</v>
+        <v>0.1634488774606156</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03309443502888457</v>
+        <v>0.03462842961193825</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4816048808.138676</v>
+        <v>4761351034.712458</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1947425777846129</v>
+        <v>0.1445911434022777</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05136947227857168</v>
+        <v>0.05433634715355341</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3253497871.121863</v>
+        <v>2817458108.666631</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1801709635886587</v>
+        <v>0.1602850897628464</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04891628636433408</v>
+        <v>0.04560494736714311</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>3231611254.399265</v>
+        <v>2311920944.596526</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1777235152880813</v>
+        <v>0.1752187157417551</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05255057437496317</v>
+        <v>0.05316663076232867</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4755084977.404785</v>
+        <v>4595893734.435299</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07178384732054173</v>
+        <v>0.07590318938565467</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02242046919064762</v>
+        <v>0.02992643693716449</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2360896206.569775</v>
+        <v>3858788259.925971</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1584729472284996</v>
+        <v>0.1726264467222616</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03044589054346966</v>
+        <v>0.04317512070268788</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1470020172.031953</v>
+        <v>1222773124.118705</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1056062153010433</v>
+        <v>0.08965436498982449</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04156579931524548</v>
+        <v>0.04218935408197909</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2122066222.058873</v>
+        <v>2621549460.098703</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1120097236746988</v>
+        <v>0.0891176340357412</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04751949240957128</v>
+        <v>0.0412277536646306</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -906,13 +906,13 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3293274813.154805</v>
+        <v>3743187588.694479</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1687985666760042</v>
+        <v>0.1406051870771452</v>
       </c>
       <c r="G17" t="n">
-        <v>0.03884408850162299</v>
+        <v>0.04214820194944963</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3625391673.172052</v>
+        <v>4009570640.046846</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1147770321652233</v>
+        <v>0.1245094666194326</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02668531058498795</v>
+        <v>0.02626972948406439</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1003084793.584575</v>
+        <v>872409485.164369</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1587628952552328</v>
+        <v>0.1854530843934432</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02733206857854363</v>
+        <v>0.01659871751839497</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -990,13 +990,13 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2417428452.1654</v>
+        <v>1940800461.530715</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1270745545583461</v>
+        <v>0.1278483003398229</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02136187032612425</v>
+        <v>0.02469871338897358</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2155144349.363874</v>
+        <v>1813747700.03085</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09337631906579248</v>
+        <v>0.06210452912328929</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03683046760231422</v>
+        <v>0.03723593770789679</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1040,19 +1040,19 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3533340865.183428</v>
+        <v>2658096097.843259</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1210124618989746</v>
+        <v>0.1126050586897305</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04723007270572328</v>
+        <v>0.04945817097865591</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1247599449.878311</v>
+        <v>1321627013.137662</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1720927199412824</v>
+        <v>0.1365531771728574</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03541328235197461</v>
+        <v>0.05321953587515164</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2720323009.6268</v>
+        <v>2961034042.083179</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1340285011297425</v>
+        <v>0.1239453449772896</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02478328952477874</v>
+        <v>0.03532055144681592</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1080366040.033456</v>
+        <v>1355436253.554344</v>
       </c>
       <c r="F25" t="n">
-        <v>0.0960572602182994</v>
+        <v>0.1170533894477012</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02122120175539615</v>
+        <v>0.02745008786284902</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>917088928.4569998</v>
+        <v>1097475247.588864</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1149284868816691</v>
+        <v>0.1148048718529718</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02911815627376222</v>
+        <v>0.02958279006545201</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4451781891.666482</v>
+        <v>3420122296.546412</v>
       </c>
       <c r="F27" t="n">
-        <v>0.15350294896532</v>
+        <v>0.1562515748742622</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02130729539831693</v>
+        <v>0.0204474350829267</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1208,22 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3597346178.771768</v>
+        <v>3869567096.855999</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1365355745865334</v>
+        <v>0.09696329835476823</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03571008851420979</v>
+        <v>0.0485245778676239</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1236,22 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4077105671.968744</v>
+        <v>4453458658.298934</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1321038010245754</v>
+        <v>0.09999683688634853</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04482286848824643</v>
+        <v>0.03651181802570191</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,22 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2067299330.839841</v>
+        <v>1746595952.741567</v>
       </c>
       <c r="F30" t="n">
-        <v>0.0944054165504135</v>
+        <v>0.136273719605327</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03810343828990286</v>
+        <v>0.03412623096587841</v>
       </c>
       <c r="H30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1252836255.658646</v>
+        <v>1231590244.141498</v>
       </c>
       <c r="F31" t="n">
-        <v>0.1066689299628363</v>
+        <v>0.07297396175403764</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04600281531516186</v>
+        <v>0.04393615256199402</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1326,16 +1326,16 @@
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1264426604.584143</v>
+        <v>1560241765.849337</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08120650764796883</v>
+        <v>0.08490618681274416</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02813056208344509</v>
+        <v>0.03207701898647015</v>
       </c>
       <c r="H32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2685472642.67606</v>
+        <v>2067637353.045125</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1557730910684209</v>
+        <v>0.1502980918043055</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03819632234642691</v>
+        <v>0.05690476014304547</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1246825694.677962</v>
+        <v>1241708671.49916</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09578090689209016</v>
+        <v>0.1162346214268211</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02486762947545046</v>
+        <v>0.02530531493512183</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1310793928.733233</v>
+        <v>1124768765.565794</v>
       </c>
       <c r="F35" t="n">
-        <v>0.08116469264981943</v>
+        <v>0.1114171901474652</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0448803666036434</v>
+        <v>0.03494630569984798</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2921112756.365578</v>
+        <v>2134290912.189322</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1233848422595109</v>
+        <v>0.1436909316626805</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02423353281842019</v>
+        <v>0.02640657092900273</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1916255903.779705</v>
+        <v>2603535901.72038</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07750776869372726</v>
+        <v>0.09167958616955406</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03710928426979421</v>
+        <v>0.03674115354040663</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2113305135.418187</v>
+        <v>1357267161.742337</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1054953372031304</v>
+        <v>0.1160123023339514</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0275024414537964</v>
+        <v>0.03325256676355624</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1428687920.764348</v>
+        <v>2015236229.577408</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1438359066516684</v>
+        <v>0.1849801698516424</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02001452051929922</v>
+        <v>0.02780240556743734</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1285672293.479495</v>
+        <v>1390232066.350403</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1469534689358661</v>
+        <v>0.1482630263291042</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04422403194051667</v>
+        <v>0.04750570442572027</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2408410781.44855</v>
+        <v>2792284386.560665</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1161316040165813</v>
+        <v>0.120724943390115</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03282927999473979</v>
+        <v>0.03150401401710529</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3103153853.013251</v>
+        <v>3957346503.375172</v>
       </c>
       <c r="F42" t="n">
-        <v>0.07807649725301864</v>
+        <v>0.08947831910827962</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04648469151298016</v>
+        <v>0.02956783134206588</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,16 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>3015452494.447188</v>
+        <v>2154403345.932125</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1301994162886408</v>
+        <v>0.1589755061648351</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02372359542433453</v>
+        <v>0.02461274413336753</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2171948109.21267</v>
+        <v>2148865660.120039</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09346220938214177</v>
+        <v>0.08808929667160953</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03246329054049441</v>
+        <v>0.03541390577780416</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2373849906.554089</v>
+        <v>2097860980.163185</v>
       </c>
       <c r="F45" t="n">
-        <v>0.155039102269776</v>
+        <v>0.1282733778043141</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03780643731917735</v>
+        <v>0.04945882454649125</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3824167254.960961</v>
+        <v>4221834719.000388</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1577425466826006</v>
+        <v>0.1536613700681666</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0496954732999362</v>
+        <v>0.05131262061596005</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4891561281.580745</v>
+        <v>3913690089.49352</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1929945835385554</v>
+        <v>0.1859230216743319</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05505525799187596</v>
+        <v>0.0394071570486371</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,13 +1774,13 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3391669714.871954</v>
+        <v>3601641340.250761</v>
       </c>
       <c r="F48" t="n">
-        <v>0.1031007490203522</v>
+        <v>0.09568071478705423</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03559120053953248</v>
+        <v>0.03175625526411115</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1344863349.230718</v>
+        <v>1676729587.772372</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1551183296917209</v>
+        <v>0.1293841941226281</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04275819380331893</v>
+        <v>0.02950539789605839</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,22 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3557138208.840387</v>
+        <v>2790016106.376238</v>
       </c>
       <c r="F50" t="n">
-        <v>0.123892520416436</v>
+        <v>0.1178107606959643</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04273172915577852</v>
+        <v>0.0386982432548217</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1024308709.403611</v>
+        <v>1307060714.96253</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1329897748442115</v>
+        <v>0.1284922813579735</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04388192375800559</v>
+        <v>0.03848604718862472</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3717519853.673288</v>
+        <v>3889360806.796436</v>
       </c>
       <c r="F52" t="n">
-        <v>0.122426808199006</v>
+        <v>0.0877810493505317</v>
       </c>
       <c r="G52" t="n">
-        <v>0.05872248434135258</v>
+        <v>0.0487779010223288</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2985751501.79015</v>
+        <v>2921855176.507895</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1302805559769955</v>
+        <v>0.1959501698050469</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02896033871095305</v>
+        <v>0.0241471016087703</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4728353145.090899</v>
+        <v>3961909267.250165</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1038969911012245</v>
+        <v>0.1393228497690929</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05080156608586885</v>
+        <v>0.03546897965956951</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1970,13 +1970,13 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3563323799.015242</v>
+        <v>3961900814.005334</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1961434199760177</v>
+        <v>0.2128790360428905</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02642339635192363</v>
+        <v>0.02911165433217377</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1446798579.671369</v>
+        <v>1339021431.873806</v>
       </c>
       <c r="F56" t="n">
-        <v>0.118769772432428</v>
+        <v>0.1043087426937597</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0521560401660946</v>
+        <v>0.0380052703368562</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4525816275.517008</v>
+        <v>4520274432.703178</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1693535105254683</v>
+        <v>0.1429784339742984</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02519229482830435</v>
+        <v>0.01985060397129773</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2054,13 +2054,13 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1787158511.829244</v>
+        <v>1804304500.893422</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1916389340665598</v>
+        <v>0.1433971340650065</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03604823875673037</v>
+        <v>0.02760583701251399</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4865518445.396679</v>
+        <v>4420575578.142665</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09964730354746523</v>
+        <v>0.07977480839029145</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03984088973693181</v>
+        <v>0.03581590334764209</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2629961091.088897</v>
+        <v>3761245920.041457</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1976197207196385</v>
+        <v>0.1462059831297415</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02373290597709405</v>
+        <v>0.02129107152218948</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2138,13 +2138,13 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3028766738.488683</v>
+        <v>2335523899.423634</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1436797655106749</v>
+        <v>0.1476283102393326</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02203062082074638</v>
+        <v>0.02705602307030166</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1702123465.879304</v>
+        <v>1472792785.669457</v>
       </c>
       <c r="F62" t="n">
-        <v>0.16936829083605</v>
+        <v>0.1479221002742103</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04890450347484041</v>
+        <v>0.03871733903267138</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,22 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5149336458.714664</v>
+        <v>3457726661.765653</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07252464469264885</v>
+        <v>0.09844354349976885</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03547998418074689</v>
+        <v>0.03485289038066994</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4384209639.771427</v>
+        <v>5085169003.437078</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1302767357706337</v>
+        <v>0.1332767759097753</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03464960821148065</v>
+        <v>0.03497090450386958</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4917360310.554833</v>
+        <v>4423814413.460481</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1175871011065612</v>
+        <v>0.1071398771507305</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02572220838712767</v>
+        <v>0.02185510756829545</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2272,22 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4130473306.347564</v>
+        <v>4546337073.730348</v>
       </c>
       <c r="F66" t="n">
-        <v>0.09902384979763475</v>
+        <v>0.1149793156521683</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04099141250290975</v>
+        <v>0.03087929593855061</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2187945216.28941</v>
+        <v>3148891276.946856</v>
       </c>
       <c r="F67" t="n">
-        <v>0.0792678724617424</v>
+        <v>0.06881076997437599</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04877124740428763</v>
+        <v>0.03613949672291511</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,19 +2328,19 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5338454822.879774</v>
+        <v>4745207019.531205</v>
       </c>
       <c r="F68" t="n">
-        <v>0.103621282538671</v>
+        <v>0.1149581919467284</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04447328870745681</v>
+        <v>0.05040744606164695</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1609470816.832431</v>
+        <v>1841425842.338741</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1438087749846098</v>
+        <v>0.1333141867172284</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04537728189689599</v>
+        <v>0.04956260325973692</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>2945336245.06189</v>
+        <v>3483578943.601771</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07764248375427332</v>
+        <v>0.08756512265369853</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0496011480592865</v>
+        <v>0.04395561116008206</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,19 +2412,19 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4156966752.042494</v>
+        <v>3896686658.644875</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1477893064988115</v>
+        <v>0.1243689068348514</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03037301720468191</v>
+        <v>0.03361473342083397</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1639243306.536604</v>
+        <v>1517051446.551039</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0772323264337553</v>
+        <v>0.07806238649418339</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04908608191023071</v>
+        <v>0.05180104026757323</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2200537781.765801</v>
+        <v>2374643500.238706</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06829653121227508</v>
+        <v>0.09860398723845361</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03985510832533451</v>
+        <v>0.03533617676084169</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>2538219678.747011</v>
+        <v>3553100462.492394</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1835174792701279</v>
+        <v>0.1593775881768816</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03267792150564974</v>
+        <v>0.03018997052977795</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2176361709.78944</v>
+        <v>2098233288.755064</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1479524949486944</v>
+        <v>0.1080734646569751</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02579621546256115</v>
+        <v>0.03463512931946095</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5167088903.943598</v>
+        <v>4128544593.869713</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1202536364162845</v>
+        <v>0.08769504318600359</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02147150589476734</v>
+        <v>0.02758226580232758</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2234059391.526628</v>
+        <v>1475737983.338239</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1434634241396431</v>
+        <v>0.1784848403263572</v>
       </c>
       <c r="G77" t="n">
-        <v>0.01992702531862221</v>
+        <v>0.02542932810418526</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,19 +2608,19 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3908165134.913655</v>
+        <v>4041066077.52318</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1090581096595878</v>
+        <v>0.1071543127059844</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03841810149860607</v>
+        <v>0.04417174665029324</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
@@ -2642,16 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1189974705.397113</v>
+        <v>1750543442.065241</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1654097866688218</v>
+        <v>0.1598549951420078</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03705510804584381</v>
+        <v>0.02609974126918964</v>
       </c>
       <c r="H79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80">
@@ -2670,16 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4972363191.055934</v>
+        <v>5536261171.397318</v>
       </c>
       <c r="F80" t="n">
-        <v>0.0763497846380267</v>
+        <v>0.07003074788705399</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03726503092359195</v>
+        <v>0.03795468563990217</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3351649837.301406</v>
+        <v>4614280457.393654</v>
       </c>
       <c r="F81" t="n">
-        <v>0.09418617818039832</v>
+        <v>0.124211635539487</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02308940579115085</v>
+        <v>0.02691900379115776</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2726,16 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4987362468.072153</v>
+        <v>4548450340.694649</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1615948426490578</v>
+        <v>0.182175974512199</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02466591618274436</v>
+        <v>0.02102124908047671</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2055916478.988786</v>
+        <v>2393452353.743894</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1484453017637055</v>
+        <v>0.1034855283622897</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02966995169561675</v>
+        <v>0.03919112690669784</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2330200109.332912</v>
+        <v>2398396545.049159</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07812363546414662</v>
+        <v>0.100561839128386</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04838837048152613</v>
+        <v>0.03477420548305189</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3201571461.327751</v>
+        <v>3676224246.719398</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1806117148067397</v>
+        <v>0.1831906994948849</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05654393565504794</v>
+        <v>0.0480178855814373</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2210743558.317056</v>
+        <v>2550160343.339019</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1142174569063816</v>
+        <v>0.136593321067747</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01774927937325821</v>
+        <v>0.02748160091517526</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2860,19 +2860,19 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1449503171.003307</v>
+        <v>1018296298.069025</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1875539080817459</v>
+        <v>0.1781944953897941</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02678256683080944</v>
+        <v>0.02930099782818123</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3480443931.441248</v>
+        <v>2388481305.324784</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1480266508349739</v>
+        <v>0.1698854974199732</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03641279077204584</v>
+        <v>0.03085177009610206</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2924524418.303431</v>
+        <v>2557671353.367555</v>
       </c>
       <c r="F89" t="n">
-        <v>0.156461182440318</v>
+        <v>0.1169132040268432</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03150468212678643</v>
+        <v>0.04126553939879114</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,22 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1884128332.120902</v>
+        <v>2023205772.887806</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1162370548103749</v>
+        <v>0.1247835949483536</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05486224563658033</v>
+        <v>0.05418464202566375</v>
       </c>
       <c r="H90" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91">
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1334824142.929585</v>
+        <v>1350475107.025434</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1189753994118743</v>
+        <v>0.1305656330210599</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05684373292412071</v>
+        <v>0.04803495157891843</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2615556557.973759</v>
+        <v>2353939761.122135</v>
       </c>
       <c r="F92" t="n">
-        <v>0.0765479330141848</v>
+        <v>0.08470115109645418</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03293315243876706</v>
+        <v>0.04394028939695525</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3893137592.14768</v>
+        <v>5004335539.645063</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09865177787178238</v>
+        <v>0.1094623621263948</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05316260482535941</v>
+        <v>0.04282276840336154</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,22 +3056,22 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2368737960.969382</v>
+        <v>2289157736.902615</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1318739588088478</v>
+        <v>0.158175937933997</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03590565586967227</v>
+        <v>0.03502292009242149</v>
       </c>
       <c r="H94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2803649273.5539</v>
+        <v>3243568291.0179</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08360351711424327</v>
+        <v>0.1298130938171643</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04669366069335575</v>
+        <v>0.04313732206173549</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1967906044.120189</v>
+        <v>2377426112.34873</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1270044335533832</v>
+        <v>0.1107087319993117</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03934923435971858</v>
+        <v>0.04209322315113634</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3146,16 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4101175449.889925</v>
+        <v>4643355145.532131</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1264164541009654</v>
+        <v>0.1422699575762744</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02058381855703162</v>
+        <v>0.02748134112944355</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3504160468.645095</v>
+        <v>3174350930.751357</v>
       </c>
       <c r="F98" t="n">
-        <v>0.09876740000241342</v>
+        <v>0.1119579785572442</v>
       </c>
       <c r="G98" t="n">
-        <v>0.03039347139633113</v>
+        <v>0.02691032885652714</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3202,13 +3202,13 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3069497910.214895</v>
+        <v>2664973254.975592</v>
       </c>
       <c r="F99" t="n">
-        <v>0.09453429222289393</v>
+        <v>0.1365517673829114</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03456278255866741</v>
+        <v>0.03366010479430364</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,22 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3416919200.319695</v>
+        <v>4645470456.208787</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1225786131346863</v>
+        <v>0.1390738761047614</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01796428607880347</v>
+        <v>0.02619663997261029</v>
       </c>
       <c r="H100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>3393722709.712162</v>
+        <v>2475816203.55968</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1974627443045919</v>
+        <v>0.1525930280550793</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03632264784374464</v>
+        <v>0.05698746093296396</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_448.xlsx
+++ b/output/fit_clients/fit_round_448.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2195775251.096577</v>
+        <v>2522462761.026516</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07501284454510417</v>
+        <v>0.08148360522721998</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03015437621179912</v>
+        <v>0.03079198639752708</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -514,17 +536,24 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1949479427.978739</v>
+        <v>2192671504.020328</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1207708575811357</v>
+        <v>0.1793658259296773</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04835701812603063</v>
+        <v>0.03406919241832034</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4684719277.696337</v>
+        <v>3328622167.119276</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1258939993245593</v>
+        <v>0.1405341577710138</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02481276579277882</v>
+        <v>0.03274040835376943</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>227</v>
+      </c>
+      <c r="J4" t="n">
+        <v>447</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32.46353563517088</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2976599059.549586</v>
+        <v>4154994080.754753</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08936296283836834</v>
+        <v>0.09294096665146291</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03069046851524039</v>
+        <v>0.03914610928220247</v>
       </c>
       <c r="H5" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>188</v>
+      </c>
+      <c r="J5" t="n">
+        <v>448</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -598,17 +643,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2027942834.681373</v>
+        <v>2607834600.800108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1038954315797095</v>
+        <v>0.1065943159089462</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03728229057976466</v>
+        <v>0.04888920940986222</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2461729580.84448</v>
+        <v>3040339765.697993</v>
       </c>
       <c r="F7" t="n">
-        <v>0.08020631440569165</v>
+        <v>0.08232755188308048</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04905553749760876</v>
+        <v>0.04350878273586661</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,22 +707,31 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3400910134.5007</v>
+        <v>2407658786.813508</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1974134980807527</v>
+        <v>0.1496131961774132</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02855999188066241</v>
+        <v>0.02936606176531942</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>123</v>
+      </c>
+      <c r="J8" t="n">
+        <v>447</v>
+      </c>
+      <c r="K8" t="n">
+        <v>22.8204799229255</v>
       </c>
     </row>
     <row r="9">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2009148754.303396</v>
+        <v>1556028778.900504</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1634488774606156</v>
+        <v>0.1229990126384611</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03462842961193825</v>
+        <v>0.02436296259453771</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -710,16 +785,25 @@
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4761351034.712458</v>
+        <v>5468473697.161132</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1445911434022777</v>
+        <v>0.1387087165268213</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05433634715355341</v>
+        <v>0.0486441193285127</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>349</v>
+      </c>
+      <c r="J10" t="n">
+        <v>447</v>
+      </c>
+      <c r="K10" t="n">
+        <v>34.10365842184535</v>
       </c>
     </row>
     <row r="11">
@@ -738,17 +822,24 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2817458108.666631</v>
+        <v>4081479653.808241</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1602850897628464</v>
+        <v>0.1735928481741981</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04560494736714311</v>
+        <v>0.0434818326730658</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>185</v>
+      </c>
+      <c r="J11" t="n">
+        <v>448</v>
+      </c>
+      <c r="K11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -760,23 +851,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2311920944.596526</v>
+        <v>2752752026.853143</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1752187157417551</v>
+        <v>0.1887130848444954</v>
       </c>
       <c r="G12" t="n">
-        <v>0.05316663076232867</v>
+        <v>0.03675428072384097</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +886,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4595893734.435299</v>
+        <v>3835479783.679477</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07590318938565467</v>
+        <v>0.08117927351212209</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02992643693716449</v>
+        <v>0.0236070009210025</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>232</v>
+      </c>
+      <c r="J13" t="n">
+        <v>448</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3858788259.925971</v>
+        <v>3050288057.824545</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1726264467222616</v>
+        <v>0.1637897804174551</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04317512070268788</v>
+        <v>0.04099290893525163</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>98</v>
+      </c>
+      <c r="J14" t="n">
+        <v>444</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +962,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1222773124.118705</v>
+        <v>1649124483.403602</v>
       </c>
       <c r="F15" t="n">
-        <v>0.08965436498982449</v>
+        <v>0.08723778249480708</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04218935408197909</v>
+        <v>0.04129019310011372</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +997,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2621549460.098703</v>
+        <v>2103026365.983612</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0891176340357412</v>
+        <v>0.1017250242391343</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0412277536646306</v>
+        <v>0.03653525730075086</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3743187588.694479</v>
+        <v>3358653565.131492</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1406051870771452</v>
+        <v>0.1700808073754741</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04214820194944963</v>
+        <v>0.03872102663662459</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>218</v>
+      </c>
+      <c r="J17" t="n">
+        <v>447</v>
+      </c>
+      <c r="K17" t="n">
+        <v>32.20349971348719</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>4009570640.046846</v>
+        <v>3981405280.981059</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1245094666194326</v>
+        <v>0.1168635508135048</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02626972948406439</v>
+        <v>0.03128243759209669</v>
       </c>
       <c r="H18" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>118</v>
+      </c>
+      <c r="J18" t="n">
+        <v>448</v>
+      </c>
+      <c r="K18" t="n">
+        <v>48.96718516315715</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>872409485.164369</v>
+        <v>1019634803.564538</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1854530843934432</v>
+        <v>0.1277641122847756</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01659871751839497</v>
+        <v>0.0246868809353945</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -984,23 +1135,30 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1940800461.530715</v>
+        <v>1987934575.904435</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1278483003398229</v>
+        <v>0.1159274613958208</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02469871338897358</v>
+        <v>0.02439687150538646</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1813747700.03085</v>
+        <v>2616297134.000601</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06210452912328929</v>
+        <v>0.07169456565079707</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03723593770789679</v>
+        <v>0.02969401722942256</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2658096097.843259</v>
+        <v>2805565329.104893</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1126050586897305</v>
+        <v>0.1072281627784276</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04945817097865591</v>
+        <v>0.04490417539763396</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>130</v>
+      </c>
+      <c r="J22" t="n">
+        <v>439</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1321627013.137662</v>
+        <v>1370054129.66739</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1365531771728574</v>
+        <v>0.1481777826289788</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05321953587515164</v>
+        <v>0.04549226940398455</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1102,17 +1281,24 @@
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2961034042.083179</v>
+        <v>2738795036.0643</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1239453449772896</v>
+        <v>0.09461236891245858</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03532055144681592</v>
+        <v>0.02295470914998477</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>142</v>
+      </c>
+      <c r="J24" t="n">
+        <v>444</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1355436253.554344</v>
+        <v>960987073.5083218</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1170533894477012</v>
+        <v>0.1111081487030017</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02745008786284902</v>
+        <v>0.02671456671204491</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1097475247.588864</v>
+        <v>1343145001.047418</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1148048718529718</v>
+        <v>0.07581650635399519</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02958279006545201</v>
+        <v>0.03538472987964499</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,23 +1380,30 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3420122296.546412</v>
+        <v>3631373263.227922</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1562515748742622</v>
+        <v>0.1120369278777695</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0204474350829267</v>
+        <v>0.02288491427092214</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
       </c>
+      <c r="I27" t="n">
+        <v>194</v>
+      </c>
+      <c r="J27" t="n">
+        <v>448</v>
+      </c>
+      <c r="K27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -1208,23 +1415,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3869567096.855999</v>
+        <v>2349095928.170503</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09696329835476823</v>
+        <v>0.1292183881984313</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0485245778676239</v>
+        <v>0.03598223780249656</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1242,16 +1456,25 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4453458658.298934</v>
+        <v>3837193401.527195</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09999683688634853</v>
+        <v>0.1164501339962307</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03651181802570191</v>
+        <v>0.04260388972952485</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>365</v>
+      </c>
+      <c r="J29" t="n">
+        <v>447</v>
+      </c>
+      <c r="K29" t="n">
+        <v>35.6820600592048</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1487,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1746595952.741567</v>
+        <v>2260286325.703697</v>
       </c>
       <c r="F30" t="n">
-        <v>0.136273719605327</v>
+        <v>0.1251745887681846</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03412623096587841</v>
+        <v>0.03835063689323662</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1292,23 +1522,30 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1231590244.141498</v>
+        <v>1061056927.339202</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07297396175403764</v>
+        <v>0.07635272725467952</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04393615256199402</v>
+        <v>0.05149347729551816</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1557,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1560241765.849337</v>
+        <v>1180722650.806637</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08490618681274416</v>
+        <v>0.08845500231784117</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03207701898647015</v>
+        <v>0.03071544203949524</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1592,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2067637353.045125</v>
+        <v>2499596641.43541</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1502980918043055</v>
+        <v>0.1500703067789226</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05690476014304547</v>
+        <v>0.05623329073834796</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1627,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1241708671.49916</v>
+        <v>1394333103.59512</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1162346214268211</v>
+        <v>0.07911078060529082</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02530531493512183</v>
+        <v>0.01772225663329328</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1662,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1124768765.565794</v>
+        <v>1165965613.482979</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1114171901474652</v>
+        <v>0.09068977175680779</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03494630569984798</v>
+        <v>0.03991338706719488</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1697,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2134290912.189322</v>
+        <v>2280947110.412401</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1436909316626805</v>
+        <v>0.1600100355994117</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02640657092900273</v>
+        <v>0.02064282230353186</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1732,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2603535901.72038</v>
+        <v>1944471934.495531</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09167958616955406</v>
+        <v>0.09809816793960327</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03674115354040663</v>
+        <v>0.02765036205308881</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1494,17 +1773,24 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1357267161.742337</v>
+        <v>1717046788.795594</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1160123023339514</v>
+        <v>0.121416737355675</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03325256676355624</v>
+        <v>0.03795090707875307</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1802,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2015236229.577408</v>
+        <v>1436321044.639779</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1849801698516424</v>
+        <v>0.1228903911710463</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02780240556743734</v>
+        <v>0.02960146152103816</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1837,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1390232066.350403</v>
+        <v>1411587634.847718</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1482630263291042</v>
+        <v>0.1046966971701697</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04750570442572027</v>
+        <v>0.04995026945225974</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1872,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2792284386.560665</v>
+        <v>2732772873.977474</v>
       </c>
       <c r="F41" t="n">
-        <v>0.120724943390115</v>
+        <v>0.1359103185237679</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03150401401710529</v>
+        <v>0.04246275221408759</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,22 +1907,31 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3957346503.375172</v>
+        <v>3056893744.697132</v>
       </c>
       <c r="F42" t="n">
-        <v>0.08947831910827962</v>
+        <v>0.07898675683526657</v>
       </c>
       <c r="G42" t="n">
-        <v>0.02956783134206588</v>
+        <v>0.03845771071992558</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>196</v>
+      </c>
+      <c r="J42" t="n">
+        <v>447</v>
+      </c>
+      <c r="K42" t="n">
+        <v>30.67733333236923</v>
       </c>
     </row>
     <row r="43">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2154403345.932125</v>
+        <v>2333704572.840015</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1589755061648351</v>
+        <v>0.1463481595693901</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02461274413336753</v>
+        <v>0.02388949191131365</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2148865660.120039</v>
+        <v>2275544538.127941</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08808929667160953</v>
+        <v>0.06191486579195244</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03541390577780416</v>
+        <v>0.0362115882613136</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2097860980.163185</v>
+        <v>2318785542.178281</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1282733778043141</v>
+        <v>0.128546991011842</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04945882454649125</v>
+        <v>0.0370598096495582</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,22 +2049,31 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4221834719.000388</v>
+        <v>4753960984.577973</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1536613700681666</v>
+        <v>0.1107530239824561</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05131262061596005</v>
+        <v>0.04395401963293778</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>266</v>
+      </c>
+      <c r="J46" t="n">
+        <v>448</v>
+      </c>
+      <c r="K46" t="n">
+        <v>37.73102342108803</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +2086,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3913690089.49352</v>
+        <v>3812700054.009929</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1859230216743319</v>
+        <v>0.1945183367752631</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0394071570486371</v>
+        <v>0.05016440228720777</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>202</v>
+      </c>
+      <c r="J47" t="n">
+        <v>447</v>
+      </c>
+      <c r="K47" t="n">
+        <v>35.69086817911174</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2123,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3601641340.250761</v>
+        <v>3285650375.146202</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09568071478705423</v>
+        <v>0.09690477643136544</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03175625526411115</v>
+        <v>0.03764118591451626</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>226</v>
+      </c>
+      <c r="J48" t="n">
+        <v>446</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2158,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1676729587.772372</v>
+        <v>1821412328.74163</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1293841941226281</v>
+        <v>0.1777511656057371</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02950539789605839</v>
+        <v>0.04113280921910668</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,23 +2193,30 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2790016106.376238</v>
+        <v>3443456936.950709</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1178107606959643</v>
+        <v>0.12818671067406</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0386982432548217</v>
+        <v>0.03395298797651553</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>160</v>
+      </c>
+      <c r="J50" t="n">
+        <v>445</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1307060714.96253</v>
+        <v>1423197603.145091</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1284922813579735</v>
+        <v>0.1319490674833237</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03848604718862472</v>
+        <v>0.03983385995229897</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1886,17 +2269,24 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3889360806.796436</v>
+        <v>5207076685.099853</v>
       </c>
       <c r="F52" t="n">
-        <v>0.0877810493505317</v>
+        <v>0.09623570788909191</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0487779010223288</v>
+        <v>0.06207989247599032</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>255</v>
+      </c>
+      <c r="J52" t="n">
+        <v>448</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2298,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2921855176.507895</v>
+        <v>3198487876.194249</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1959501698050469</v>
+        <v>0.1899961760338423</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0241471016087703</v>
+        <v>0.02200027778169891</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>68</v>
+      </c>
+      <c r="J53" t="n">
+        <v>446</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,23 +2333,30 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3961909267.250165</v>
+        <v>4327019887.458994</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1393228497690929</v>
+        <v>0.1273882359786103</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03546897965956951</v>
+        <v>0.03445713888098219</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
       </c>
+      <c r="I54" t="n">
+        <v>236</v>
+      </c>
+      <c r="J54" t="n">
+        <v>448</v>
+      </c>
+      <c r="K54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
@@ -1970,17 +2374,24 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3961900814.005334</v>
+        <v>3565909122.374622</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2128790360428905</v>
+        <v>0.1412491978364126</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02911165433217377</v>
+        <v>0.03028924779742578</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>222</v>
+      </c>
+      <c r="J55" t="n">
+        <v>448</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1339021431.873806</v>
+        <v>1230034722.554797</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1043087426937597</v>
+        <v>0.1080401712978822</v>
       </c>
       <c r="G56" t="n">
-        <v>0.0380052703368562</v>
+        <v>0.04056310206827408</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2438,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4520274432.703178</v>
+        <v>3541536294.181983</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1429784339742984</v>
+        <v>0.1553959313735251</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01985060397129773</v>
+        <v>0.02317268904692538</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>195</v>
+      </c>
+      <c r="J57" t="n">
+        <v>447</v>
+      </c>
+      <c r="K57" t="n">
+        <v>36.23620172768779</v>
       </c>
     </row>
     <row r="58">
@@ -2054,17 +2481,24 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1804304500.893422</v>
+        <v>1683781908.97145</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1433971340650065</v>
+        <v>0.1778724125482218</v>
       </c>
       <c r="G58" t="n">
-        <v>0.02760583701251399</v>
+        <v>0.03462550125140286</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2510,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4420575578.142665</v>
+        <v>3419517997.287514</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07977480839029145</v>
+        <v>0.1191538753530098</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03581590334764209</v>
+        <v>0.04407908681180354</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>219</v>
+      </c>
+      <c r="J59" t="n">
+        <v>447</v>
+      </c>
+      <c r="K59" t="n">
+        <v>32.14708706952959</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2553,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3761245920.041457</v>
+        <v>2344610438.508692</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1462059831297415</v>
+        <v>0.1308327624615912</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02129107152218948</v>
+        <v>0.02129103823469306</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2582,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2335523899.423634</v>
+        <v>2229140830.588256</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1476283102393326</v>
+        <v>0.1804962409559174</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02705602307030166</v>
+        <v>0.03246619389784732</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2617,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1472792785.669457</v>
+        <v>1978767693.051664</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1479221002742103</v>
+        <v>0.1670244273529498</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03871733903267138</v>
+        <v>0.03695619002893415</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2652,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3457726661.765653</v>
+        <v>5055094520.523712</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09844354349976885</v>
+        <v>0.09075621127122835</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03485289038066994</v>
+        <v>0.03432078228259003</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>224</v>
+      </c>
+      <c r="J63" t="n">
+        <v>447</v>
+      </c>
+      <c r="K63" t="n">
+        <v>35.23096270720088</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2689,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5085169003.437078</v>
+        <v>4991283951.703885</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1332767759097753</v>
+        <v>0.1236165391018129</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03497090450386958</v>
+        <v>0.03032915897432317</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>224</v>
+      </c>
+      <c r="J64" t="n">
+        <v>448</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2730,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4423814413.460481</v>
+        <v>4932712888.694888</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1071398771507305</v>
+        <v>0.1083032427086926</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02185510756829545</v>
+        <v>0.02976471824162094</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>321</v>
+      </c>
+      <c r="J65" t="n">
+        <v>448</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4546337073.730348</v>
+        <v>4337292758.15244</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1149793156521683</v>
+        <v>0.1063243343077076</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03087929593855061</v>
+        <v>0.04416597863057816</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>220</v>
+      </c>
+      <c r="J66" t="n">
+        <v>448</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3148891276.946856</v>
+        <v>2250739181.766549</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06881076997437599</v>
+        <v>0.08941255586608463</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03613949672291511</v>
+        <v>0.04559601717794284</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4745207019.531205</v>
+        <v>5062336749.137706</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1149581919467284</v>
+        <v>0.1164220227877001</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05040744606164695</v>
+        <v>0.04875679360039697</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>244</v>
+      </c>
+      <c r="J68" t="n">
+        <v>447</v>
+      </c>
+      <c r="K68" t="n">
+        <v>34.22872620587179</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2866,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1841425842.338741</v>
+        <v>1890644107.045727</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1333141867172284</v>
+        <v>0.1777062277445716</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04956260325973692</v>
+        <v>0.04657934998465406</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3483578943.601771</v>
+        <v>3481749860.935953</v>
       </c>
       <c r="F70" t="n">
-        <v>0.08756512265369853</v>
+        <v>0.07259270666980241</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04395561116008206</v>
+        <v>0.04790915190308184</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>448</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2936,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3896686658.644875</v>
+        <v>3943774880.621809</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1243689068348514</v>
+        <v>0.1676447499411454</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03361473342083397</v>
+        <v>0.02512117439424703</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>307</v>
+      </c>
+      <c r="J71" t="n">
+        <v>448</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2977,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1517051446.551039</v>
+        <v>2072010675.403555</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07806238649418339</v>
+        <v>0.08012767933509635</v>
       </c>
       <c r="G72" t="n">
-        <v>0.05180104026757323</v>
+        <v>0.04661893601592206</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3006,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2374643500.238706</v>
+        <v>2566261855.007963</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09860398723845361</v>
+        <v>0.101547039902038</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03533617676084169</v>
+        <v>0.05207646289203407</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>36</v>
+      </c>
+      <c r="J73" t="n">
+        <v>443</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2502,16 +3047,25 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3553100462.492394</v>
+        <v>2737239786.938097</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1593775881768816</v>
+        <v>0.1475118015356165</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03018997052977795</v>
+        <v>0.02185151027928062</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>129</v>
+      </c>
+      <c r="J74" t="n">
+        <v>447</v>
+      </c>
+      <c r="K74" t="n">
+        <v>30.86569816386108</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3078,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2098233288.755064</v>
+        <v>2323541449.661682</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1080734646569751</v>
+        <v>0.1456931788524026</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03463512931946095</v>
+        <v>0.02314825552934929</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2558,17 +3119,24 @@
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4128544593.869713</v>
+        <v>3667164384.220338</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08769504318600359</v>
+        <v>0.08959365083642758</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02758226580232758</v>
+        <v>0.02825834267637995</v>
       </c>
       <c r="H76" t="b">
         <v>1</v>
       </c>
+      <c r="I76" t="n">
+        <v>213</v>
+      </c>
+      <c r="J76" t="n">
+        <v>448</v>
+      </c>
+      <c r="K76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2580,23 +3148,30 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1475737983.338239</v>
+        <v>2204361187.279385</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1784848403263572</v>
+        <v>0.1736289764706317</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02542932810418526</v>
+        <v>0.02803776776309988</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,22 +3183,31 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4041066077.52318</v>
+        <v>3567279492.69325</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1071543127059844</v>
+        <v>0.1308564648745069</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04417174665029324</v>
+        <v>0.03793561706378512</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
+      </c>
+      <c r="I78" t="n">
+        <v>223</v>
+      </c>
+      <c r="J78" t="n">
+        <v>448</v>
+      </c>
+      <c r="K78" t="n">
+        <v>37.39826462762917</v>
       </c>
     </row>
     <row r="79">
@@ -2636,23 +3220,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1750543442.065241</v>
+        <v>1312183518.011708</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1598549951420078</v>
+        <v>0.1308937963157475</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02609974126918964</v>
+        <v>0.03565618723367869</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,23 +3255,30 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5536261171.397318</v>
+        <v>4381674211.93551</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07003074788705399</v>
+        <v>0.09161151025377424</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03795468563990217</v>
+        <v>0.02595099058141391</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>218</v>
+      </c>
+      <c r="J80" t="n">
+        <v>448</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2698,16 +3296,25 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4614280457.393654</v>
+        <v>4132563191.743171</v>
       </c>
       <c r="F81" t="n">
-        <v>0.124211635539487</v>
+        <v>0.0966255841771986</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02691900379115776</v>
+        <v>0.02875130209602369</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
+      </c>
+      <c r="I81" t="n">
+        <v>208</v>
+      </c>
+      <c r="J81" t="n">
+        <v>447</v>
+      </c>
+      <c r="K81" t="n">
+        <v>35.18353768763604</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3327,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4548450340.694649</v>
+        <v>4998275277.194588</v>
       </c>
       <c r="F82" t="n">
-        <v>0.182175974512199</v>
+        <v>0.1414529378964084</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02102124908047671</v>
+        <v>0.0296136486942382</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>299</v>
+      </c>
+      <c r="J82" t="n">
+        <v>448</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3362,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2393452353.743894</v>
+        <v>1609231402.726922</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1034855283622897</v>
+        <v>0.1084973760879789</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03919112690669784</v>
+        <v>0.04471385364452161</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3397,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2398396545.049159</v>
+        <v>2368262618.661095</v>
       </c>
       <c r="F84" t="n">
-        <v>0.100561839128386</v>
+        <v>0.09282146078280802</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03477420548305189</v>
+        <v>0.03900167755837755</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,22 +3432,31 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3676224246.719398</v>
+        <v>2512763118.089045</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1831906994948849</v>
+        <v>0.1676443891925905</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0480178855814373</v>
+        <v>0.05533343186431876</v>
       </c>
       <c r="H85" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I85" t="n">
+        <v>60</v>
+      </c>
+      <c r="J85" t="n">
+        <v>448</v>
+      </c>
+      <c r="K85" t="n">
+        <v>36.99793388128767</v>
       </c>
     </row>
     <row r="86">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2550160343.339019</v>
+        <v>2599497355.841638</v>
       </c>
       <c r="F86" t="n">
-        <v>0.136593321067747</v>
+        <v>0.1104952696273903</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02748160091517526</v>
+        <v>0.02665075952181448</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1018296298.069025</v>
+        <v>920313780.1424371</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1781944953897941</v>
+        <v>0.130633611366434</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02930099782818123</v>
+        <v>0.03490349077990591</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,22 +3539,31 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2388481305.324784</v>
+        <v>2737757832.799537</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1698854974199732</v>
+        <v>0.1680805730107066</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03085177009610206</v>
+        <v>0.02593272425917166</v>
       </c>
       <c r="H88" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I88" t="n">
+        <v>59</v>
+      </c>
+      <c r="J88" t="n">
+        <v>448</v>
+      </c>
+      <c r="K88" t="n">
+        <v>41.65695919863167</v>
       </c>
     </row>
     <row r="89">
@@ -2916,23 +3576,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2557671353.367555</v>
+        <v>2525688270.404189</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1169132040268432</v>
+        <v>0.1335822611602289</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04126553939879114</v>
+        <v>0.03931521499515467</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3611,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2023205772.887806</v>
+        <v>1741384702.677989</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1247835949483536</v>
+        <v>0.1360132579127083</v>
       </c>
       <c r="G90" t="n">
-        <v>0.05418464202566375</v>
+        <v>0.05163248485608083</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3646,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1350475107.025434</v>
+        <v>1803831850.753539</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1305656330210599</v>
+        <v>0.1367380612490781</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04803495157891843</v>
+        <v>0.05775614100444156</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3681,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2353939761.122135</v>
+        <v>1917854995.93826</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08470115109645418</v>
+        <v>0.08821796749524265</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04394028939695525</v>
+        <v>0.04271465878881497</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3034,16 +3722,25 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5004335539.645063</v>
+        <v>3732228407.609698</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1094623621263948</v>
+        <v>0.09545009669759601</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04282276840336154</v>
+        <v>0.03865948486879532</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>215</v>
+      </c>
+      <c r="J93" t="n">
+        <v>447</v>
+      </c>
+      <c r="K93" t="n">
+        <v>36.30895566235066</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3753,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2289157736.902615</v>
+        <v>1990205085.266261</v>
       </c>
       <c r="F94" t="n">
-        <v>0.158175937933997</v>
+        <v>0.1688994396869512</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03502292009242149</v>
+        <v>0.03312282041840998</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3788,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>3243568291.0179</v>
+        <v>2751380286.95577</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1298130938171643</v>
+        <v>0.1281942360116072</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04313732206173549</v>
+        <v>0.04488506244271601</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3118,17 +3829,24 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2377426112.34873</v>
+        <v>2171864580.430221</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1107087319993117</v>
+        <v>0.1058138685543919</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04209322315113634</v>
+        <v>0.03761539964959422</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,23 +3858,30 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4643355145.532131</v>
+        <v>3403937648.095672</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1422699575762744</v>
+        <v>0.16984436469348</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02748134112944355</v>
+        <v>0.02437804828142578</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>234</v>
+      </c>
+      <c r="J97" t="n">
+        <v>446</v>
+      </c>
+      <c r="K97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="1" t="n">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3174350930.751357</v>
+        <v>2373026024.842719</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1119579785572442</v>
+        <v>0.1114373096990677</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02691032885652714</v>
+        <v>0.0216415607525305</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>113</v>
+      </c>
+      <c r="J98" t="n">
+        <v>446</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2664973254.975592</v>
+        <v>2109873060.239789</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1365517673829114</v>
+        <v>0.08936723144760668</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03366010479430364</v>
+        <v>0.03292050881223176</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3230,16 +3969,25 @@
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4645470456.208787</v>
+        <v>3437795113.636478</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1390738761047614</v>
+        <v>0.1580313897469613</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02619663997261029</v>
+        <v>0.02559879238912971</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>208</v>
+      </c>
+      <c r="J100" t="n">
+        <v>447</v>
+      </c>
+      <c r="K100" t="n">
+        <v>34.32447287972082</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2475816203.55968</v>
+        <v>2508144986.34573</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1525930280550793</v>
+        <v>0.1467595708415491</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05698746093296396</v>
+        <v>0.05821308937529414</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>46</v>
+      </c>
+      <c r="J101" t="n">
+        <v>445</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
